--- a/data/sum_of_data.xlsx
+++ b/data/sum_of_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="18">
   <si>
     <t>Time to load in the TLP</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Total Time Standard Deviation</t>
+  </si>
+  <si>
+    <t>Edge-based Bundling</t>
   </si>
 </sst>
 </file>
@@ -310,7 +313,7 @@
                   <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Edge</c:v>
+                  <c:v>Edge-based Bundling</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Pruning</c:v>
@@ -437,7 +440,7 @@
                   <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Edge</c:v>
+                  <c:v>Edge-based Bundling</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Pruning</c:v>
@@ -564,7 +567,7 @@
                   <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Edge</c:v>
+                  <c:v>Edge-based Bundling</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Pruning</c:v>
@@ -691,7 +694,7 @@
                   <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Edge</c:v>
+                  <c:v>Edge-based Bundling</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Pruning</c:v>
@@ -1205,7 +1208,7 @@
                   <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Edge</c:v>
+                  <c:v>Edge-based Bundling</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Pruning</c:v>
@@ -1332,7 +1335,7 @@
                   <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Edge</c:v>
+                  <c:v>Edge-based Bundling</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Pruning</c:v>
@@ -1459,7 +1462,7 @@
                   <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Edge</c:v>
+                  <c:v>Edge-based Bundling</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Pruning</c:v>
@@ -1586,7 +1589,7 @@
                   <c:v>None</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Edge</c:v>
+                  <c:v>Edge-based Bundling</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Pruning</c:v>
@@ -5338,15 +5341,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>23282</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5452,16 +5455,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5757,13 +5760,15 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -5772,7 +5777,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -7606,8 +7611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/sum_of_data.xlsx
+++ b/data/sum_of_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="30" sheetId="1" r:id="rId1"/>
@@ -5760,18 +5760,18 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>10</v>
@@ -5786,7 +5786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>0.31999999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -6008,13 +6008,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>10</v>
@@ -6029,7 +6029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>1.1600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>146.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>146.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -6251,12 +6251,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>10</v>
@@ -6271,7 +6271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>76.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>152.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>152.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>33.26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -6489,16 +6489,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>10</v>
@@ -6513,7 +6513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>7.4599999999999991</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>14139.6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>14532.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>14532.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>184.71999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>7.3199999999999985</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -6735,12 +6735,12 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1">
         <v>30</v>
@@ -6755,7 +6755,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>162.54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>850.4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>251316.6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>252848.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>252849.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -6938,12 +6938,12 @@
       <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1">
         <v>30</v>
@@ -6958,7 +6958,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>11.040000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>314.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>308.8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>48306.400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>48956.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>48956.800000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>169.06</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -7158,12 +7158,12 @@
       <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1">
         <v>30</v>
@@ -7178,7 +7178,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>130557.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>131606.20000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>131606.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>94.04</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -7378,12 +7378,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1">
         <v>30</v>
@@ -7398,7 +7398,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>7.4599999999999991</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>14139.6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>14532.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>14532.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>184.71999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>7.3199999999999985</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -7611,11 +7611,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
